--- a/bonus_track/template.xlsx
+++ b/bonus_track/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\aus\RPA_Challenge\bonus_track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas.a.sandez\Documents\RPA_Challenge\bonus_track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26961EC-142A-4D4B-A5A7-4E7CB2E44322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D417670-14C8-42E2-888E-EFF871F50318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -84,18 +84,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -119,8 +113,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -344,10 +336,10 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -359,7 +351,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -376,13 +368,13 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
@@ -393,97 +385,17 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
